--- a/sampleFavorite.xlsx
+++ b/sampleFavorite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weisifan/Documents/wild3h.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB8E84E-9A6C-8646-B600-4B5078269E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E1208-135B-684F-A32E-4BFECA1E03B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="700" windowWidth="26040" windowHeight="16260" xr2:uid="{C8172699-86D1-1F4D-AC7C-D8414D6E75FD}"/>
   </bookViews>
@@ -51,11 +51,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.baidu.com/img/flexible/logo/utouch.png</t>
+    <t>https://www.baidu.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.baidu.com</t>
+    <t>https://psstatic.cdn.bcebos.com/video/wiseindex/aa6eef91f8b5b1a33b454c401_1660835115000.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +439,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" activeCellId="1" sqref="C2 C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -462,13 +462,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/sampleFavorite.xlsx
+++ b/sampleFavorite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weisifan/Documents/wild3h.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E1208-135B-684F-A32E-4BFECA1E03B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908542C5-EBFC-5748-8812-0ED72AFDDB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="700" windowWidth="26040" windowHeight="16260" xr2:uid="{C8172699-86D1-1F4D-AC7C-D8414D6E75FD}"/>
+    <workbookView xWindow="500" yWindow="700" windowWidth="26040" windowHeight="15060" xr2:uid="{C8172699-86D1-1F4D-AC7C-D8414D6E75FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" activeCellId="1" sqref="C2 C12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
